--- a/Chain.of.Heroes/Tools/ExcelParser/Data/SwordWoman.xlsx
+++ b/Chain.of.Heroes/Tools/ExcelParser/Data/SwordWoman.xlsx
@@ -8,26 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\ExcelParser\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975488C7-8C90-4410-8433-BC2B020AB7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C78295-0931-4030-968C-8ECB2B1DD631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SwordWoman" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -881,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1120,20 +1111,16 @@
         <v>15</v>
       </c>
       <c r="H6" s="17">
-        <f>ROUNDDOWN(H5*1.1,0)</f>
         <v>44</v>
       </c>
       <c r="I6" s="17">
-        <f>ROUNDDOWN(H6*0.7,0)</f>
         <v>30</v>
       </c>
       <c r="J6" s="17">
-        <f>ROUNDDOWN(J5*1.1,0)</f>
         <v>22</v>
       </c>
       <c r="K6" s="17">
-        <f>ROUNDDOWN(K5*1.05,0)</f>
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="L6" s="17">
         <v>15</v>
@@ -1168,20 +1155,16 @@
         <v>20</v>
       </c>
       <c r="H7" s="17">
-        <f>ROUNDDOWN(H6*1.1,0)</f>
         <v>48</v>
       </c>
       <c r="I7" s="17">
-        <f>ROUNDDOWN(H7*0.7,0)</f>
         <v>33</v>
       </c>
       <c r="J7" s="17">
-        <f>ROUNDDOWN(J6*1.1,0)</f>
         <v>24</v>
       </c>
       <c r="K7" s="17">
-        <f>ROUNDDOWN(K6*1.05,0)</f>
-        <v>1102</v>
+        <v>1155</v>
       </c>
       <c r="L7" s="17">
         <v>15</v>
@@ -1216,20 +1199,16 @@
         <v>25</v>
       </c>
       <c r="H8" s="17">
-        <f>ROUNDDOWN(H7*1.1,0)</f>
         <v>52</v>
       </c>
       <c r="I8" s="17">
-        <f>ROUNDDOWN(H8*0.7,0)</f>
         <v>36</v>
       </c>
       <c r="J8" s="17">
-        <f>ROUNDDOWN(J7*1.1,0)</f>
         <v>26</v>
       </c>
       <c r="K8" s="17">
-        <f>ROUNDDOWN(K7*1.05,0)</f>
-        <v>1157</v>
+        <v>1212</v>
       </c>
       <c r="L8" s="17">
         <v>15</v>
@@ -1264,20 +1243,16 @@
         <v>35</v>
       </c>
       <c r="H9" s="17">
-        <f>ROUNDDOWN(H8*1.1,0)</f>
         <v>57</v>
       </c>
       <c r="I9" s="17">
-        <f>ROUNDDOWN(H9*0.7,0)</f>
         <v>39</v>
       </c>
       <c r="J9" s="17">
-        <f>ROUNDDOWN(J8*1.1,0)</f>
         <v>28</v>
       </c>
       <c r="K9" s="17">
-        <f>ROUNDDOWN(K8*1.05,0)</f>
-        <v>1214</v>
+        <v>1272</v>
       </c>
       <c r="L9" s="17">
         <v>15</v>
@@ -1312,20 +1287,16 @@
         <v>50</v>
       </c>
       <c r="H10" s="17">
-        <f>ROUNDDOWN(H9*1.1,0)</f>
         <v>62</v>
       </c>
       <c r="I10" s="17">
-        <f>ROUNDDOWN(H10*0.7,0)</f>
         <v>43</v>
       </c>
       <c r="J10" s="17">
-        <f>ROUNDDOWN(J9*1.1,0)</f>
         <v>30</v>
       </c>
       <c r="K10" s="17">
-        <f>ROUNDDOWN(K9*1.05,0)</f>
-        <v>1274</v>
+        <v>1335</v>
       </c>
       <c r="L10" s="17">
         <v>15</v>
@@ -1360,20 +1331,16 @@
         <v>70</v>
       </c>
       <c r="H11" s="17">
-        <f>ROUNDDOWN(H10*1.1,0)</f>
         <v>68</v>
       </c>
       <c r="I11" s="17">
-        <f>ROUNDDOWN(H11*0.7,0)</f>
         <v>47</v>
       </c>
       <c r="J11" s="17">
-        <f>ROUNDDOWN(J10*1.1,0)</f>
         <v>33</v>
       </c>
       <c r="K11" s="17">
-        <f>ROUNDDOWN(K10*1.05,0)</f>
-        <v>1337</v>
+        <v>1401</v>
       </c>
       <c r="L11" s="17">
         <v>15</v>
@@ -1408,20 +1375,16 @@
         <v>90</v>
       </c>
       <c r="H12" s="17">
-        <f>ROUNDDOWN(H11*1.1,0)</f>
         <v>74</v>
       </c>
       <c r="I12" s="17">
-        <f>ROUNDDOWN(H12*0.7,0)</f>
         <v>51</v>
       </c>
       <c r="J12" s="17">
-        <f>ROUNDDOWN(J11*1.1,0)</f>
         <v>36</v>
       </c>
       <c r="K12" s="17">
-        <f>ROUNDDOWN(K11*1.05,0)</f>
-        <v>1403</v>
+        <v>1471</v>
       </c>
       <c r="L12" s="17">
         <v>15</v>
@@ -1456,20 +1419,16 @@
         <v>110</v>
       </c>
       <c r="H13" s="17">
-        <f>ROUNDDOWN(H12*1.1,0)</f>
         <v>81</v>
       </c>
       <c r="I13" s="17">
-        <f>ROUNDDOWN(H13*0.7,0)</f>
         <v>56</v>
       </c>
       <c r="J13" s="17">
-        <f>ROUNDDOWN(J12*1.1,0)</f>
         <v>39</v>
       </c>
       <c r="K13" s="17">
-        <f>ROUNDDOWN(K12*1.05,0)</f>
-        <v>1473</v>
+        <v>1544</v>
       </c>
       <c r="L13" s="17">
         <v>15</v>
@@ -1504,20 +1463,16 @@
         <v>130</v>
       </c>
       <c r="H14" s="17">
-        <f>ROUNDDOWN(H13*1.1,0)</f>
         <v>89</v>
       </c>
       <c r="I14" s="17">
-        <f>ROUNDDOWN(H14*0.7,0)</f>
         <v>62</v>
       </c>
       <c r="J14" s="17">
-        <f>ROUNDDOWN(J13*1.1,0)</f>
         <v>42</v>
       </c>
       <c r="K14" s="17">
-        <f>ROUNDDOWN(K13*1.05,0)</f>
-        <v>1546</v>
+        <v>1621</v>
       </c>
       <c r="L14" s="17">
         <v>15</v>
@@ -1552,20 +1507,16 @@
         <v>150</v>
       </c>
       <c r="H15" s="17">
-        <f>ROUNDDOWN(H14*1.1,0)</f>
         <v>97</v>
       </c>
       <c r="I15" s="17">
-        <f>ROUNDDOWN(H15*0.7,0)</f>
         <v>67</v>
       </c>
       <c r="J15" s="17">
-        <f>ROUNDDOWN(J14*1.1,0)</f>
         <v>46</v>
       </c>
       <c r="K15" s="17">
-        <f>ROUNDDOWN(K14*1.05,0)</f>
-        <v>1623</v>
+        <v>1702</v>
       </c>
       <c r="L15" s="17">
         <v>15</v>
@@ -1597,24 +1548,19 @@
         <v>0</v>
       </c>
       <c r="G16" s="17">
-        <f>ROUNDDOWN(G15*1.15,-1)</f>
         <v>170</v>
       </c>
       <c r="H16" s="17">
-        <f>ROUNDDOWN(H15*1.1,0)</f>
         <v>106</v>
       </c>
       <c r="I16" s="17">
-        <f>ROUNDDOWN(H16*0.7,0)</f>
         <v>74</v>
       </c>
       <c r="J16" s="17">
-        <f>ROUNDDOWN(J15*1.1,0)</f>
         <v>50</v>
       </c>
       <c r="K16" s="17">
-        <f>ROUNDDOWN(K15*1.05,0)</f>
-        <v>1704</v>
+        <v>1787</v>
       </c>
       <c r="L16" s="17">
         <v>15</v>
@@ -1646,24 +1592,19 @@
         <v>0</v>
       </c>
       <c r="G17" s="17">
-        <f>ROUNDDOWN(G16*1.15,-1)</f>
         <v>190</v>
       </c>
       <c r="H17" s="17">
-        <f>ROUNDDOWN(H16*1.1,0)</f>
         <v>116</v>
       </c>
       <c r="I17" s="17">
-        <f>ROUNDDOWN(H17*0.7,0)</f>
         <v>81</v>
       </c>
       <c r="J17" s="17">
-        <f>ROUNDDOWN(J16*1.1,0)</f>
         <v>55</v>
       </c>
       <c r="K17" s="17">
-        <f>ROUNDDOWN(K16*1.05,0)</f>
-        <v>1789</v>
+        <v>1876</v>
       </c>
       <c r="L17" s="17">
         <v>15</v>
@@ -1695,24 +1636,19 @@
         <v>0</v>
       </c>
       <c r="G18" s="17">
-        <f>ROUNDDOWN(G17*1.15,-1)</f>
         <v>210</v>
       </c>
       <c r="H18" s="17">
-        <f>ROUNDDOWN(H17*1.1,0)</f>
         <v>127</v>
       </c>
       <c r="I18" s="17">
-        <f>ROUNDDOWN(H18*0.7,0)</f>
         <v>88</v>
       </c>
       <c r="J18" s="17">
-        <f>ROUNDDOWN(J17*1.1,0)</f>
         <v>60</v>
       </c>
       <c r="K18" s="17">
-        <f>ROUNDDOWN(K17*1.05,0)</f>
-        <v>1878</v>
+        <v>1969</v>
       </c>
       <c r="L18" s="17">
         <v>15</v>
@@ -1744,24 +1680,19 @@
         <v>0</v>
       </c>
       <c r="G19" s="17">
-        <f>ROUNDDOWN(G18*1.15,-1)</f>
         <v>240</v>
       </c>
       <c r="H19" s="17">
-        <f>ROUNDDOWN(H18*1.1,0)</f>
         <v>139</v>
       </c>
       <c r="I19" s="17">
-        <f>ROUNDDOWN(H19*0.7,0)</f>
         <v>97</v>
       </c>
       <c r="J19" s="17">
-        <f>ROUNDDOWN(J18*1.1,0)</f>
         <v>66</v>
       </c>
       <c r="K19" s="17">
-        <f>ROUNDDOWN(K18*1.05,0)</f>
-        <v>1971</v>
+        <v>2067</v>
       </c>
       <c r="L19" s="17">
         <v>15</v>
@@ -1793,24 +1724,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="17">
-        <f>ROUNDDOWN(G19*1.15,-1)</f>
         <v>270</v>
       </c>
       <c r="H20" s="17">
-        <f>ROUNDDOWN(H19*1.1,0)</f>
         <v>152</v>
       </c>
       <c r="I20" s="17">
-        <f>ROUNDDOWN(H20*0.7,0)</f>
         <v>106</v>
       </c>
       <c r="J20" s="17">
-        <f>ROUNDDOWN(J19*1.1,0)</f>
         <v>72</v>
       </c>
       <c r="K20" s="17">
-        <f>ROUNDDOWN(K19*1.05,0)</f>
-        <v>2069</v>
+        <v>2170</v>
       </c>
       <c r="L20" s="17">
         <v>15</v>
@@ -1842,24 +1768,19 @@
         <v>0</v>
       </c>
       <c r="G21" s="17">
-        <f>ROUNDDOWN(G20*1.15,-1)</f>
         <v>310</v>
       </c>
       <c r="H21" s="17">
-        <f>ROUNDDOWN(H20*1.1,0)</f>
         <v>167</v>
       </c>
       <c r="I21" s="17">
-        <f>ROUNDDOWN(H21*0.7,0)</f>
         <v>116</v>
       </c>
       <c r="J21" s="17">
-        <f>ROUNDDOWN(J20*1.1,0)</f>
         <v>79</v>
       </c>
       <c r="K21" s="17">
-        <f>ROUNDDOWN(K20*1.05,0)</f>
-        <v>2172</v>
+        <v>2278</v>
       </c>
       <c r="L21" s="17">
         <v>15</v>
@@ -1891,24 +1812,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="17">
-        <f>ROUNDDOWN(G21*1.15,-1)</f>
         <v>350</v>
       </c>
       <c r="H22" s="17">
-        <f>ROUNDDOWN(H21*1.1,0)</f>
         <v>183</v>
       </c>
       <c r="I22" s="17">
-        <f>ROUNDDOWN(H22*0.7,0)</f>
         <v>128</v>
       </c>
       <c r="J22" s="17">
-        <f>ROUNDDOWN(J21*1.1,0)</f>
         <v>86</v>
       </c>
       <c r="K22" s="17">
-        <f>ROUNDDOWN(K21*1.05,0)</f>
-        <v>2280</v>
+        <v>2391</v>
       </c>
       <c r="L22" s="17">
         <v>15</v>
@@ -1940,24 +1856,19 @@
         <v>0</v>
       </c>
       <c r="G23" s="17">
-        <f>ROUNDDOWN(G22*1.15,-1)</f>
         <v>400</v>
       </c>
       <c r="H23" s="17">
-        <f>ROUNDDOWN(H22*1.1,0)</f>
         <v>201</v>
       </c>
       <c r="I23" s="17">
-        <f>ROUNDDOWN(H23*0.7,0)</f>
         <v>140</v>
       </c>
       <c r="J23" s="17">
-        <f>ROUNDDOWN(J22*1.1,0)</f>
         <v>94</v>
       </c>
       <c r="K23" s="17">
-        <f>ROUNDDOWN(K22*1.05,0)</f>
-        <v>2394</v>
+        <v>2510</v>
       </c>
       <c r="L23" s="17">
         <v>15</v>
@@ -1989,24 +1900,19 @@
         <v>0</v>
       </c>
       <c r="G24" s="17">
-        <f>ROUNDDOWN(G23*1.15,-1)</f>
         <v>460</v>
       </c>
       <c r="H24" s="17">
-        <f>ROUNDDOWN(H23*1.1,0)</f>
         <v>221</v>
       </c>
       <c r="I24" s="17">
-        <f>ROUNDDOWN(H24*0.7,0)</f>
         <v>154</v>
       </c>
       <c r="J24" s="17">
-        <f>ROUNDDOWN(J23*1.1,0)</f>
         <v>103</v>
       </c>
       <c r="K24" s="17">
-        <f>ROUNDDOWN(K23*1.05,0)</f>
-        <v>2513</v>
+        <v>2635</v>
       </c>
       <c r="L24" s="17">
         <v>15</v>
@@ -2038,24 +1944,19 @@
         <v>0</v>
       </c>
       <c r="G25" s="17">
-        <f>ROUNDDOWN(G24*1.17,-1)</f>
         <v>530</v>
       </c>
       <c r="H25" s="17">
-        <f>ROUNDDOWN(H24*1.1,0)</f>
         <v>243</v>
       </c>
       <c r="I25" s="17">
-        <f>ROUNDDOWN(H25*0.7,0)</f>
         <v>170</v>
       </c>
       <c r="J25" s="17">
-        <f>ROUNDDOWN(J24*1.1,0)</f>
         <v>113</v>
       </c>
       <c r="K25" s="17">
-        <f>ROUNDDOWN(K24*1.05,0)</f>
-        <v>2638</v>
+        <v>2766</v>
       </c>
       <c r="L25" s="17">
         <v>15</v>
@@ -2087,24 +1988,19 @@
         <v>0</v>
       </c>
       <c r="G26" s="17">
-        <f>ROUNDDOWN(G25*1.17,-1)</f>
         <v>620</v>
       </c>
       <c r="H26" s="17">
-        <f>ROUNDDOWN(H25*1.1,0)</f>
         <v>267</v>
       </c>
       <c r="I26" s="17">
-        <f>ROUNDDOWN(H26*0.7,0)</f>
         <v>186</v>
       </c>
       <c r="J26" s="17">
-        <f>ROUNDDOWN(J25*1.1,0)</f>
         <v>124</v>
       </c>
       <c r="K26" s="17">
-        <f>ROUNDDOWN(K25*1.05,0)</f>
-        <v>2769</v>
+        <v>2904</v>
       </c>
       <c r="L26" s="17">
         <v>15</v>
@@ -2136,24 +2032,19 @@
         <v>0</v>
       </c>
       <c r="G27" s="17">
-        <f>ROUNDDOWN(G26*1.17,-1)</f>
         <v>720</v>
       </c>
       <c r="H27" s="17">
-        <f>ROUNDDOWN(H26*1.1,0)</f>
         <v>293</v>
       </c>
       <c r="I27" s="17">
-        <f>ROUNDDOWN(H27*0.7,0)</f>
         <v>205</v>
       </c>
       <c r="J27" s="17">
-        <f>ROUNDDOWN(J26*1.1,0)</f>
         <v>136</v>
       </c>
       <c r="K27" s="17">
-        <f>ROUNDDOWN(K26*1.05,0)</f>
-        <v>2907</v>
+        <v>3049</v>
       </c>
       <c r="L27" s="17">
         <v>15</v>
@@ -2185,24 +2076,19 @@
         <v>0</v>
       </c>
       <c r="G28" s="17">
-        <f>ROUNDDOWN(G27*1.17,-1)</f>
         <v>840</v>
       </c>
       <c r="H28" s="17">
-        <f>ROUNDDOWN(H27*1.1,0)</f>
         <v>322</v>
       </c>
       <c r="I28" s="17">
-        <f>ROUNDDOWN(H28*0.7,0)</f>
         <v>225</v>
       </c>
       <c r="J28" s="17">
-        <f>ROUNDDOWN(J27*1.1,0)</f>
         <v>149</v>
       </c>
       <c r="K28" s="17">
-        <f>ROUNDDOWN(K27*1.05,0)</f>
-        <v>3052</v>
+        <v>3201</v>
       </c>
       <c r="L28" s="17">
         <v>15</v>
@@ -2234,24 +2120,19 @@
         <v>0</v>
       </c>
       <c r="G29" s="17">
-        <f>ROUNDDOWN(G28*1.17,-1)</f>
         <v>980</v>
       </c>
       <c r="H29" s="17">
-        <f>ROUNDDOWN(H28*1.1,0)</f>
         <v>354</v>
       </c>
       <c r="I29" s="17">
-        <f>ROUNDDOWN(H29*0.7,0)</f>
         <v>247</v>
       </c>
       <c r="J29" s="17">
-        <f>ROUNDDOWN(J28*1.1,0)</f>
         <v>163</v>
       </c>
       <c r="K29" s="17">
-        <f>ROUNDDOWN(K28*1.05,0)</f>
-        <v>3204</v>
+        <v>3361</v>
       </c>
       <c r="L29" s="17">
         <v>15</v>
@@ -2283,24 +2164,19 @@
         <v>0</v>
       </c>
       <c r="G30" s="17">
-        <f>ROUNDDOWN(G29*1.17,-1)</f>
         <v>1140</v>
       </c>
       <c r="H30" s="17">
-        <f>ROUNDDOWN(H29*1.1,0)</f>
         <v>389</v>
       </c>
       <c r="I30" s="17">
-        <f>ROUNDDOWN(H30*0.7,0)</f>
         <v>272</v>
       </c>
       <c r="J30" s="17">
-        <f>ROUNDDOWN(J29*1.1,0)</f>
         <v>179</v>
       </c>
       <c r="K30" s="17">
-        <f>ROUNDDOWN(K29*1.05,0)</f>
-        <v>3364</v>
+        <v>3529</v>
       </c>
       <c r="L30" s="17">
         <v>15</v>
@@ -2332,24 +2208,19 @@
         <v>0</v>
       </c>
       <c r="G31" s="17">
-        <f>ROUNDDOWN(G30*1.17,-1)</f>
         <v>1330</v>
       </c>
       <c r="H31" s="17">
-        <f>ROUNDDOWN(H30*1.1,0)</f>
         <v>427</v>
       </c>
       <c r="I31" s="17">
-        <f>ROUNDDOWN(H31*0.7,0)</f>
         <v>298</v>
       </c>
       <c r="J31" s="17">
-        <f>ROUNDDOWN(J30*1.1,0)</f>
         <v>196</v>
       </c>
       <c r="K31" s="17">
-        <f>ROUNDDOWN(K30*1.05,0)</f>
-        <v>3532</v>
+        <v>3705</v>
       </c>
       <c r="L31" s="17">
         <v>15</v>
@@ -2381,24 +2252,19 @@
         <v>0</v>
       </c>
       <c r="G32" s="17">
-        <f>ROUNDDOWN(G31*1.17,-1)</f>
         <v>1550</v>
       </c>
       <c r="H32" s="17">
-        <f>ROUNDDOWN(H31*1.1,0)</f>
         <v>469</v>
       </c>
       <c r="I32" s="17">
-        <f>ROUNDDOWN(H32*0.7,0)</f>
         <v>328</v>
       </c>
       <c r="J32" s="17">
-        <f>ROUNDDOWN(J31*1.1,0)</f>
         <v>215</v>
       </c>
       <c r="K32" s="17">
-        <f>ROUNDDOWN(K31*1.05,0)</f>
-        <v>3708</v>
+        <v>3890</v>
       </c>
       <c r="L32" s="17">
         <v>15</v>
@@ -2430,24 +2296,19 @@
         <v>0</v>
       </c>
       <c r="G33" s="17">
-        <f>ROUNDDOWN(G32*1.17,-1)</f>
         <v>1810</v>
       </c>
       <c r="H33" s="17">
-        <f>ROUNDDOWN(H32*1.1,0)</f>
         <v>515</v>
       </c>
       <c r="I33" s="17">
-        <f>ROUNDDOWN(H33*0.7,0)</f>
         <v>360</v>
       </c>
       <c r="J33" s="17">
-        <f>ROUNDDOWN(J32*1.1,0)</f>
         <v>236</v>
       </c>
       <c r="K33" s="17">
-        <f>ROUNDDOWN(K32*1.05,0)</f>
-        <v>3893</v>
+        <v>4084</v>
       </c>
       <c r="L33" s="17">
         <v>15</v>
@@ -2479,24 +2340,19 @@
         <v>0</v>
       </c>
       <c r="G34" s="17">
-        <f>ROUNDDOWN(G33*1.17,-1)</f>
         <v>2110</v>
       </c>
       <c r="H34" s="17">
-        <f>ROUNDDOWN(H33*1.1,0)</f>
         <v>566</v>
       </c>
       <c r="I34" s="17">
-        <f>ROUNDDOWN(H34*0.7,0)</f>
         <v>396</v>
       </c>
       <c r="J34" s="17">
-        <f>ROUNDDOWN(J33*1.1,0)</f>
         <v>259</v>
       </c>
       <c r="K34" s="17">
-        <f>ROUNDDOWN(K33*1.05,0)</f>
-        <v>4087</v>
+        <v>4288</v>
       </c>
       <c r="L34" s="17">
         <v>15</v>
@@ -2528,24 +2384,19 @@
         <v>0</v>
       </c>
       <c r="G35" s="17">
-        <f>ROUNDDOWN(G34*1.2,-1)</f>
         <v>2530</v>
       </c>
       <c r="H35" s="17">
-        <f>ROUNDDOWN(H34*1.1,0)</f>
         <v>622</v>
       </c>
       <c r="I35" s="17">
-        <f>ROUNDDOWN(H35*0.7,0)</f>
         <v>435</v>
       </c>
       <c r="J35" s="17">
-        <f>ROUNDDOWN(J34*1.1,0)</f>
         <v>284</v>
       </c>
       <c r="K35" s="17">
-        <f>ROUNDDOWN(K34*1.05,0)</f>
-        <v>4291</v>
+        <v>4502</v>
       </c>
       <c r="L35" s="17">
         <v>15</v>
@@ -2577,24 +2428,19 @@
         <v>0</v>
       </c>
       <c r="G36" s="17">
-        <f>ROUNDDOWN(G35*1.2,-1)</f>
         <v>3030</v>
       </c>
       <c r="H36" s="17">
-        <f>ROUNDDOWN(H35*1.1,0)</f>
         <v>684</v>
       </c>
       <c r="I36" s="17">
-        <f>ROUNDDOWN(H36*0.7,0)</f>
         <v>478</v>
       </c>
       <c r="J36" s="17">
-        <f>ROUNDDOWN(J35*1.1,0)</f>
         <v>312</v>
       </c>
       <c r="K36" s="17">
-        <f>ROUNDDOWN(K35*1.05,0)</f>
-        <v>4505</v>
+        <v>4727</v>
       </c>
       <c r="L36" s="17">
         <v>15</v>
@@ -2626,24 +2472,19 @@
         <v>0</v>
       </c>
       <c r="G37" s="17">
-        <f>ROUNDDOWN(G36*1.2,-1)</f>
         <v>3630</v>
       </c>
       <c r="H37" s="17">
-        <f>ROUNDDOWN(H36*1.1,0)</f>
         <v>752</v>
       </c>
       <c r="I37" s="17">
-        <f>ROUNDDOWN(H37*0.7,0)</f>
         <v>526</v>
       </c>
       <c r="J37" s="17">
-        <f>ROUNDDOWN(J36*1.1,0)</f>
         <v>343</v>
       </c>
       <c r="K37" s="17">
-        <f>ROUNDDOWN(K36*1.05,0)</f>
-        <v>4730</v>
+        <v>4963</v>
       </c>
       <c r="L37" s="17">
         <v>15</v>
@@ -2675,24 +2516,19 @@
         <v>0</v>
       </c>
       <c r="G38" s="17">
-        <f>ROUNDDOWN(G37*1.2,-1)</f>
         <v>4350</v>
       </c>
       <c r="H38" s="17">
-        <f>ROUNDDOWN(H37*1.1,0)</f>
-        <v>827</v>
+        <v>927</v>
       </c>
       <c r="I38" s="17">
-        <f>ROUNDDOWN(H38*0.7,0)</f>
         <v>578</v>
       </c>
       <c r="J38" s="17">
-        <f>ROUNDDOWN(J37*1.1,0)</f>
         <v>377</v>
       </c>
       <c r="K38" s="17">
-        <f>ROUNDDOWN(K37*1.05,0)</f>
-        <v>4966</v>
+        <v>5211</v>
       </c>
       <c r="L38" s="17">
         <v>15</v>
@@ -2724,24 +2560,19 @@
         <v>0</v>
       </c>
       <c r="G39" s="17">
-        <f>ROUNDDOWN(G38*1.2,-1)</f>
         <v>5220</v>
       </c>
       <c r="H39" s="17">
-        <f>ROUNDDOWN(H38*1.1,0)</f>
         <v>909</v>
       </c>
       <c r="I39" s="17">
-        <f>ROUNDDOWN(H39*0.7,0)</f>
         <v>636</v>
       </c>
       <c r="J39" s="17">
-        <f>ROUNDDOWN(J38*1.1,0)</f>
         <v>414</v>
       </c>
       <c r="K39" s="17">
-        <f>ROUNDDOWN(K38*1.05,0)</f>
-        <v>5214</v>
+        <v>5471</v>
       </c>
       <c r="L39" s="17">
         <v>15</v>
@@ -2773,24 +2604,19 @@
         <v>0</v>
       </c>
       <c r="G40" s="17">
-        <f>ROUNDDOWN(G39*1.2,-1)</f>
         <v>6260</v>
       </c>
       <c r="H40" s="17">
-        <f>ROUNDDOWN(H39*1.1,0)</f>
         <v>999</v>
       </c>
       <c r="I40" s="17">
-        <f>ROUNDDOWN(H40*0.7,0)</f>
         <v>699</v>
       </c>
       <c r="J40" s="17">
-        <f>ROUNDDOWN(J39*1.1,0)</f>
         <v>455</v>
       </c>
       <c r="K40" s="17">
-        <f>ROUNDDOWN(K39*1.05,0)</f>
-        <v>5474</v>
+        <v>5744</v>
       </c>
       <c r="L40" s="17">
         <v>15</v>
@@ -2822,24 +2648,19 @@
         <v>0</v>
       </c>
       <c r="G41" s="17">
-        <f>ROUNDDOWN(G40*1.2,-1)</f>
         <v>7510</v>
       </c>
       <c r="H41" s="17">
-        <f>ROUNDDOWN(H40*1.1,0)</f>
         <v>1098</v>
       </c>
       <c r="I41" s="17">
-        <f>ROUNDDOWN(H41*0.7,0)</f>
         <v>768</v>
       </c>
       <c r="J41" s="17">
-        <f>ROUNDDOWN(J40*1.1,0)</f>
         <v>500</v>
       </c>
       <c r="K41" s="17">
-        <f>ROUNDDOWN(K40*1.05,0)</f>
-        <v>5747</v>
+        <v>6031</v>
       </c>
       <c r="L41" s="17">
         <v>15</v>
@@ -2871,24 +2692,19 @@
         <v>0</v>
       </c>
       <c r="G42" s="17">
-        <f>ROUNDDOWN(G41*1.2,-1)</f>
         <v>9010</v>
       </c>
       <c r="H42" s="17">
-        <f>ROUNDDOWN(H41*1.1,0)</f>
         <v>1207</v>
       </c>
       <c r="I42" s="17">
-        <f>ROUNDDOWN(H42*0.7,0)</f>
         <v>844</v>
       </c>
       <c r="J42" s="17">
-        <f>ROUNDDOWN(J41*1.1,0)</f>
         <v>550</v>
       </c>
       <c r="K42" s="17">
-        <f>ROUNDDOWN(K41*1.05,0)</f>
-        <v>6034</v>
+        <v>6332</v>
       </c>
       <c r="L42" s="17">
         <v>15</v>
@@ -2920,24 +2736,19 @@
         <v>0</v>
       </c>
       <c r="G43" s="17">
-        <f>ROUNDDOWN(G42*1.2,-1)</f>
         <v>10810</v>
       </c>
       <c r="H43" s="17">
-        <f>ROUNDDOWN(H42*1.1,0)</f>
         <v>1327</v>
       </c>
       <c r="I43" s="17">
-        <f>ROUNDDOWN(H43*0.7,0)</f>
         <v>928</v>
       </c>
       <c r="J43" s="17">
-        <f>ROUNDDOWN(J42*1.1,0)</f>
         <v>605</v>
       </c>
       <c r="K43" s="17">
-        <f>ROUNDDOWN(K42*1.05,0)</f>
-        <v>6335</v>
+        <v>6648</v>
       </c>
       <c r="L43" s="17">
         <v>15</v>
@@ -2969,24 +2780,19 @@
         <v>0</v>
       </c>
       <c r="G44" s="17">
-        <f>ROUNDDOWN(G43*1.2,-1)</f>
         <v>12970</v>
       </c>
       <c r="H44" s="17">
-        <f>ROUNDDOWN(H43*1.1,0)</f>
         <v>1459</v>
       </c>
       <c r="I44" s="17">
-        <f>ROUNDDOWN(H44*0.7,0)</f>
         <v>1021</v>
       </c>
       <c r="J44" s="17">
-        <f>ROUNDDOWN(J43*1.1,0)</f>
         <v>665</v>
       </c>
       <c r="K44" s="17">
-        <f>ROUNDDOWN(K43*1.05,0)</f>
-        <v>6651</v>
+        <v>6980</v>
       </c>
       <c r="L44" s="17">
         <v>15</v>

--- a/Chain.of.Heroes/Tools/ExcelParser/Data/SwordWoman.xlsx
+++ b/Chain.of.Heroes/Tools/ExcelParser/Data/SwordWoman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\ExcelParser\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C78295-0931-4030-968C-8ECB2B1DD631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C85869-9DC1-4272-9307-0326E75FFA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Chain.of.Heroes/Tools/ExcelParser/Data/SwordWoman.xlsx
+++ b/Chain.of.Heroes/Tools/ExcelParser/Data/SwordWoman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\ExcelParser\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C85869-9DC1-4272-9307-0326E75FFA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE21C78E-07D8-458E-8135-2A94D6C28A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SwordWoman" sheetId="1" r:id="rId1"/>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Chain.of.Heroes/Tools/ExcelParser/Data/SwordWoman.xlsx
+++ b/Chain.of.Heroes/Tools/ExcelParser/Data/SwordWoman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\ExcelParser\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOJIN\Desktop\데이터테이블\캐릭터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE21C78E-07D8-458E-8135-2A94D6C28A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD7CBFD-3CA1-4EA5-B05B-E5B28F02D775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SwordWoman" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
   <si>
     <t>Int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -148,10 +148,6 @@
   </si>
   <si>
     <t>CharClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knight</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -872,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -935,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1026,7 +1022,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>22</v>
@@ -1049,10 +1045,10 @@
         <v>10010000</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
@@ -1084,8 +1080,8 @@
       <c r="M5" s="17">
         <v>1.3</v>
       </c>
-      <c r="N5" s="17" t="s">
-        <v>31</v>
+      <c r="N5" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1093,10 +1089,10 @@
         <v>10010001</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="17">
         <v>2</v>
@@ -1128,8 +1124,8 @@
       <c r="M6" s="17">
         <v>1.3</v>
       </c>
-      <c r="N6" s="17" t="s">
-        <v>31</v>
+      <c r="N6" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1137,10 +1133,10 @@
         <v>10010002</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="17">
         <v>3</v>
@@ -1172,8 +1168,8 @@
       <c r="M7" s="17">
         <v>1.3</v>
       </c>
-      <c r="N7" s="17" t="s">
-        <v>31</v>
+      <c r="N7" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1181,10 +1177,10 @@
         <v>10010003</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="17">
         <v>4</v>
@@ -1216,8 +1212,8 @@
       <c r="M8" s="17">
         <v>1.3</v>
       </c>
-      <c r="N8" s="17" t="s">
-        <v>31</v>
+      <c r="N8" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1225,10 +1221,10 @@
         <v>10010004</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="17">
         <v>5</v>
@@ -1260,8 +1256,8 @@
       <c r="M9" s="17">
         <v>1.3</v>
       </c>
-      <c r="N9" s="17" t="s">
-        <v>31</v>
+      <c r="N9" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1269,10 +1265,10 @@
         <v>10010005</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="17">
         <v>6</v>
@@ -1304,8 +1300,8 @@
       <c r="M10" s="17">
         <v>1.3</v>
       </c>
-      <c r="N10" s="17" t="s">
-        <v>31</v>
+      <c r="N10" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1313,10 +1309,10 @@
         <v>10010006</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="17">
         <v>7</v>
@@ -1348,8 +1344,8 @@
       <c r="M11" s="17">
         <v>1.3</v>
       </c>
-      <c r="N11" s="17" t="s">
-        <v>31</v>
+      <c r="N11" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1357,10 +1353,10 @@
         <v>10010007</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="17">
         <v>8</v>
@@ -1392,8 +1388,8 @@
       <c r="M12" s="17">
         <v>1.3</v>
       </c>
-      <c r="N12" s="17" t="s">
-        <v>31</v>
+      <c r="N12" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1401,10 +1397,10 @@
         <v>10010008</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="17">
         <v>9</v>
@@ -1436,8 +1432,8 @@
       <c r="M13" s="17">
         <v>1.3</v>
       </c>
-      <c r="N13" s="17" t="s">
-        <v>31</v>
+      <c r="N13" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1445,10 +1441,10 @@
         <v>10010009</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="17">
         <v>10</v>
@@ -1480,8 +1476,8 @@
       <c r="M14" s="17">
         <v>1.3</v>
       </c>
-      <c r="N14" s="17" t="s">
-        <v>31</v>
+      <c r="N14" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1489,10 +1485,10 @@
         <v>10010010</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="17">
         <v>11</v>
@@ -1524,8 +1520,8 @@
       <c r="M15" s="17">
         <v>1.3</v>
       </c>
-      <c r="N15" s="17" t="s">
-        <v>31</v>
+      <c r="N15" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1533,10 +1529,10 @@
         <v>10010011</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="17">
         <v>12</v>
@@ -1568,8 +1564,8 @@
       <c r="M16" s="17">
         <v>1.3</v>
       </c>
-      <c r="N16" s="17" t="s">
-        <v>31</v>
+      <c r="N16" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1577,10 +1573,10 @@
         <v>10010012</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="17">
         <v>13</v>
@@ -1612,8 +1608,8 @@
       <c r="M17" s="17">
         <v>1.3</v>
       </c>
-      <c r="N17" s="17" t="s">
-        <v>31</v>
+      <c r="N17" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1621,10 +1617,10 @@
         <v>10010013</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="17">
         <v>14</v>
@@ -1656,8 +1652,8 @@
       <c r="M18" s="17">
         <v>1.3</v>
       </c>
-      <c r="N18" s="17" t="s">
-        <v>31</v>
+      <c r="N18" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1665,10 +1661,10 @@
         <v>10010014</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="17">
         <v>15</v>
@@ -1700,8 +1696,8 @@
       <c r="M19" s="17">
         <v>1.3</v>
       </c>
-      <c r="N19" s="17" t="s">
-        <v>31</v>
+      <c r="N19" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1709,10 +1705,10 @@
         <v>10010015</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="17">
         <v>16</v>
@@ -1744,8 +1740,8 @@
       <c r="M20" s="17">
         <v>1.3</v>
       </c>
-      <c r="N20" s="17" t="s">
-        <v>31</v>
+      <c r="N20" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1753,10 +1749,10 @@
         <v>10010016</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="17">
         <v>17</v>
@@ -1788,8 +1784,8 @@
       <c r="M21" s="17">
         <v>1.3</v>
       </c>
-      <c r="N21" s="17" t="s">
-        <v>31</v>
+      <c r="N21" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1797,10 +1793,10 @@
         <v>10010017</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="17">
         <v>18</v>
@@ -1832,8 +1828,8 @@
       <c r="M22" s="17">
         <v>1.3</v>
       </c>
-      <c r="N22" s="17" t="s">
-        <v>31</v>
+      <c r="N22" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1841,10 +1837,10 @@
         <v>10010018</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="17">
         <v>19</v>
@@ -1876,8 +1872,8 @@
       <c r="M23" s="17">
         <v>1.3</v>
       </c>
-      <c r="N23" s="17" t="s">
-        <v>31</v>
+      <c r="N23" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -1885,10 +1881,10 @@
         <v>10010019</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="17">
         <v>20</v>
@@ -1920,8 +1916,8 @@
       <c r="M24" s="17">
         <v>1.3</v>
       </c>
-      <c r="N24" s="17" t="s">
-        <v>31</v>
+      <c r="N24" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1929,10 +1925,10 @@
         <v>10010020</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="17">
         <v>21</v>
@@ -1964,8 +1960,8 @@
       <c r="M25" s="17">
         <v>1.3</v>
       </c>
-      <c r="N25" s="17" t="s">
-        <v>31</v>
+      <c r="N25" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1973,10 +1969,10 @@
         <v>10010021</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="17">
         <v>22</v>
@@ -2008,8 +2004,8 @@
       <c r="M26" s="17">
         <v>1.3</v>
       </c>
-      <c r="N26" s="17" t="s">
-        <v>31</v>
+      <c r="N26" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -2017,10 +2013,10 @@
         <v>10010022</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="17">
         <v>23</v>
@@ -2052,8 +2048,8 @@
       <c r="M27" s="17">
         <v>1.3</v>
       </c>
-      <c r="N27" s="17" t="s">
-        <v>31</v>
+      <c r="N27" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -2061,10 +2057,10 @@
         <v>10010023</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="17">
         <v>24</v>
@@ -2096,8 +2092,8 @@
       <c r="M28" s="17">
         <v>1.3</v>
       </c>
-      <c r="N28" s="17" t="s">
-        <v>31</v>
+      <c r="N28" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -2105,10 +2101,10 @@
         <v>10010024</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="17">
         <v>25</v>
@@ -2140,8 +2136,8 @@
       <c r="M29" s="17">
         <v>1.3</v>
       </c>
-      <c r="N29" s="17" t="s">
-        <v>31</v>
+      <c r="N29" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -2149,10 +2145,10 @@
         <v>10010025</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="17">
         <v>26</v>
@@ -2184,8 +2180,8 @@
       <c r="M30" s="17">
         <v>1.3</v>
       </c>
-      <c r="N30" s="17" t="s">
-        <v>31</v>
+      <c r="N30" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -2193,10 +2189,10 @@
         <v>10010026</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="17">
         <v>27</v>
@@ -2228,8 +2224,8 @@
       <c r="M31" s="17">
         <v>1.3</v>
       </c>
-      <c r="N31" s="17" t="s">
-        <v>31</v>
+      <c r="N31" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -2237,10 +2233,10 @@
         <v>10010027</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="17">
         <v>28</v>
@@ -2272,8 +2268,8 @@
       <c r="M32" s="17">
         <v>1.3</v>
       </c>
-      <c r="N32" s="17" t="s">
-        <v>31</v>
+      <c r="N32" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -2281,10 +2277,10 @@
         <v>10010028</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="17">
         <v>29</v>
@@ -2316,8 +2312,8 @@
       <c r="M33" s="17">
         <v>1.3</v>
       </c>
-      <c r="N33" s="17" t="s">
-        <v>31</v>
+      <c r="N33" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -2325,10 +2321,10 @@
         <v>10010029</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="17">
         <v>30</v>
@@ -2360,8 +2356,8 @@
       <c r="M34" s="17">
         <v>1.3</v>
       </c>
-      <c r="N34" s="17" t="s">
-        <v>31</v>
+      <c r="N34" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -2369,10 +2365,10 @@
         <v>10010030</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" s="17">
         <v>31</v>
@@ -2404,8 +2400,8 @@
       <c r="M35" s="17">
         <v>1.3</v>
       </c>
-      <c r="N35" s="17" t="s">
-        <v>31</v>
+      <c r="N35" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -2413,10 +2409,10 @@
         <v>10010031</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" s="17">
         <v>32</v>
@@ -2448,8 +2444,8 @@
       <c r="M36" s="17">
         <v>1.3</v>
       </c>
-      <c r="N36" s="17" t="s">
-        <v>31</v>
+      <c r="N36" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -2457,10 +2453,10 @@
         <v>10010032</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="17">
         <v>33</v>
@@ -2492,8 +2488,8 @@
       <c r="M37" s="17">
         <v>1.3</v>
       </c>
-      <c r="N37" s="17" t="s">
-        <v>31</v>
+      <c r="N37" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -2501,10 +2497,10 @@
         <v>10010033</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="17">
         <v>34</v>
@@ -2536,8 +2532,8 @@
       <c r="M38" s="17">
         <v>1.3</v>
       </c>
-      <c r="N38" s="17" t="s">
-        <v>31</v>
+      <c r="N38" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -2545,10 +2541,10 @@
         <v>10010034</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" s="17">
         <v>35</v>
@@ -2580,8 +2576,8 @@
       <c r="M39" s="17">
         <v>1.3</v>
       </c>
-      <c r="N39" s="17" t="s">
-        <v>31</v>
+      <c r="N39" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -2589,10 +2585,10 @@
         <v>10010035</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D40" s="17">
         <v>36</v>
@@ -2624,8 +2620,8 @@
       <c r="M40" s="17">
         <v>1.3</v>
       </c>
-      <c r="N40" s="17" t="s">
-        <v>31</v>
+      <c r="N40" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -2633,10 +2629,10 @@
         <v>10010036</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41" s="17">
         <v>37</v>
@@ -2668,8 +2664,8 @@
       <c r="M41" s="17">
         <v>1.3</v>
       </c>
-      <c r="N41" s="17" t="s">
-        <v>31</v>
+      <c r="N41" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -2677,10 +2673,10 @@
         <v>10010037</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="17">
         <v>38</v>
@@ -2712,8 +2708,8 @@
       <c r="M42" s="17">
         <v>1.3</v>
       </c>
-      <c r="N42" s="17" t="s">
-        <v>31</v>
+      <c r="N42" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -2721,10 +2717,10 @@
         <v>10010038</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="17">
         <v>39</v>
@@ -2756,8 +2752,8 @@
       <c r="M43" s="17">
         <v>1.3</v>
       </c>
-      <c r="N43" s="17" t="s">
-        <v>31</v>
+      <c r="N43" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -2765,10 +2761,10 @@
         <v>10010039</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="17">
         <v>40</v>
@@ -2800,8 +2796,8 @@
       <c r="M44" s="17">
         <v>1.3</v>
       </c>
-      <c r="N44" s="17" t="s">
-        <v>31</v>
+      <c r="N44" s="17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
